--- a/Testing Report.xlsx
+++ b/Testing Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micheleporretta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micheleporretta/mobd/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
   <si>
     <t xml:space="preserve">Elapsed time </t>
   </si>
@@ -65,6 +65,12 @@
   <si>
     <t>Objective Distance</t>
   </si>
+  <si>
+    <t xml:space="preserve">NOTA: Per gli step N = 100; N = 125, N = 135, N = 145, non è stato possibile eseguire 10 Run </t>
+  </si>
+  <si>
+    <t>a causa degli elevati tempi richiesti da ogni singolo run</t>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +81,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="167" formatCode="#,##0.00000000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -221,6 +227,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,9 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -313,6 +319,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -459,11 +466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2147372208"/>
-        <c:axId val="-2147375152"/>
+        <c:axId val="-2128013712"/>
+        <c:axId val="2126668768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147372208"/>
+        <c:axId val="-2128013712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,6 +502,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -561,7 +569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147375152"/>
+        <c:crossAx val="2126668768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147375152"/>
+        <c:axId val="2126668768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150.0"/>
@@ -617,6 +625,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -677,7 +686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147372208"/>
+        <c:crossAx val="-2128013712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
@@ -767,6 +776,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -899,11 +909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2147482032"/>
-        <c:axId val="-2146089792"/>
+        <c:axId val="-2121553328"/>
+        <c:axId val="2127758288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147482032"/>
+        <c:axId val="-2121553328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,6 +945,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1001,7 +1012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146089792"/>
+        <c:crossAx val="2127758288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1009,7 +1020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146089792"/>
+        <c:axId val="2127758288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12"/>
@@ -1057,6 +1068,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1117,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2147482032"/>
+        <c:crossAx val="-2121553328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.01"/>
@@ -1207,6 +1219,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1328,11 +1341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2146049776"/>
-        <c:axId val="-2146043888"/>
+        <c:axId val="-2128061488"/>
+        <c:axId val="2130068352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146049776"/>
+        <c:axId val="-2128061488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,6 +1377,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1430,7 +1444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146043888"/>
+        <c:crossAx val="2130068352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1438,7 +1452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146043888"/>
+        <c:axId val="2130068352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,6 +1498,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1544,7 +1559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146049776"/>
+        <c:crossAx val="-2128061488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,7 +1763,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Equivalent Model'!$C$91</c:f>
+              <c:f>'Equivalent Model'!$C$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1801,7 +1816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Equivalent Model'!$C$28,'Equivalent Model'!$C$42,'Equivalent Model'!$C$57,'Equivalent Model'!$C$71,'Equivalent Model'!$C$85,'Equivalent Model'!$C$102,'Equivalent Model'!$C$116,'Equivalent Model'!$C$130)</c:f>
+              <c:f>('Equivalent Model'!$C$28,'Equivalent Model'!$C$42,'Equivalent Model'!$C$58,'Equivalent Model'!$C$66,'Equivalent Model'!$C$71,'Equivalent Model'!$C$79,'Equivalent Model'!$C$84,'Equivalent Model'!$C$98)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1815,16 +1830,16 @@
                   <c:v>291.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>304.2</c:v>
+                  <c:v>939.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.1</c:v>
+                  <c:v>721.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.7</c:v>
+                  <c:v>827.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>176.1</c:v>
+                  <c:v>1761.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,11 +1855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2145992048"/>
-        <c:axId val="-2145986160"/>
+        <c:axId val="2128512768"/>
+        <c:axId val="-2126293840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145992048"/>
+        <c:axId val="2128512768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145986160"/>
+        <c:crossAx val="-2126293840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145986160"/>
+        <c:axId val="-2126293840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145992048"/>
+        <c:crossAx val="2128512768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,7 +2203,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Equivalent Model'!$D$91</c:f>
+              <c:f>'Equivalent Model'!$D$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2241,7 +2256,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Equivalent Model'!$D$28,'Equivalent Model'!$D$42,'Equivalent Model'!$D$57,'Equivalent Model'!$D$71,'Equivalent Model'!$D$85,'Equivalent Model'!$D$102,'Equivalent Model'!$D$116,'Equivalent Model'!$D$130)</c:f>
+              <c:f>('Equivalent Model'!$D$28,'Equivalent Model'!$D$42,'Equivalent Model'!$D$58,'Equivalent Model'!$D$66,'Equivalent Model'!$D$71,'Equivalent Model'!$D$79,'Equivalent Model'!$D$84,'Equivalent Model'!$D$98)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000000000000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2255,16 +2270,16 @@
                   <c:v>0.1324213232174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.022913010133</c:v>
+                  <c:v>0.11456570810675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0101173067088</c:v>
+                  <c:v>0.101173067088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0097430329016</c:v>
+                  <c:v>0.097430329016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0093783965403</c:v>
+                  <c:v>0.093783965403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2280,11 +2295,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2145951200"/>
-        <c:axId val="-2145945312"/>
+        <c:axId val="2124713456"/>
+        <c:axId val="-2127607936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145951200"/>
+        <c:axId val="2124713456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145945312"/>
+        <c:crossAx val="-2127607936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,7 +2406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145945312"/>
+        <c:axId val="-2127607936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +2525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145951200"/>
+        <c:crossAx val="2124713456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2694,7 +2709,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Equivalent Model'!$B$28,'Equivalent Model'!$B$42,'Equivalent Model'!$B$57,'Equivalent Model'!$B$71,'Equivalent Model'!$B$85,'Equivalent Model'!$B$102,'Equivalent Model'!$B$116)</c:f>
+              <c:f>('Equivalent Model'!$B$28,'Equivalent Model'!$B$42,'Equivalent Model'!$B$58,'Equivalent Model'!$B$66,'Equivalent Model'!$B$71,'Equivalent Model'!$B$79,'Equivalent Model'!$B$84)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2708,16 +2723,16 @@
                   <c:v>428.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1044.2</c:v>
+                  <c:v>3208.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>602.1</c:v>
+                  <c:v>6021.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>799.8</c:v>
+                  <c:v>7998.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2138.7</c:v>
+                  <c:v>21387.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2733,11 +2748,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2145918448"/>
-        <c:axId val="-2145915056"/>
+        <c:axId val="-2130404912"/>
+        <c:axId val="-2130003456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145918448"/>
+        <c:axId val="-2130404912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2780,7 +2795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145915056"/>
+        <c:crossAx val="-2130003456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2788,7 +2803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145915056"/>
+        <c:axId val="-2130003456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2145918448"/>
+        <c:crossAx val="-2130404912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6325,14 +6340,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285465</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>62553</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>586508</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6357,14 +6372,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285467</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>176284</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>644237</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6389,14 +6404,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>284237</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4235</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>56245</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41126</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6683,7 +6698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="99" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="99" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B75" sqref="B75:D84"/>
     </sheetView>
   </sheetViews>
@@ -6696,13 +6711,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6787,11 +6802,11 @@
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="9">
         <v>25</v>
       </c>
@@ -6968,11 +6983,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="9">
         <v>50</v>
       </c>
@@ -7149,11 +7164,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="9">
         <v>75</v>
       </c>
@@ -7330,11 +7345,11 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="9">
         <v>100</v>
       </c>
@@ -7509,11 +7524,11 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="9">
         <v>125</v>
       </c>
@@ -7690,11 +7705,11 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="9">
         <v>135</v>
       </c>
@@ -7871,11 +7886,11 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="9">
         <v>145</v>
       </c>
@@ -8052,9 +8067,9 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
       <c r="D116" s="9"/>
     </row>
     <row r="117" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -8084,10 +8099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8099,13 +8114,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8189,11 +8204,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="9">
         <v>25</v>
       </c>
@@ -8370,11 +8385,11 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="9">
         <v>50</v>
       </c>
@@ -8550,347 +8565,318 @@
         <v>0.1664689855043</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+    <row r="46" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="9">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>1</v>
-      </c>
-      <c r="B47" s="12">
-        <v>12</v>
-      </c>
-      <c r="C47" s="10">
-        <v>8</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0.13239432392299999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="12">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="C48" s="10">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D48" s="11">
-        <v>0.13241801689499999</v>
+        <v>0.13239432392299999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="12">
-        <v>1511</v>
+        <v>156</v>
       </c>
       <c r="C49" s="10">
-        <v>1014</v>
+        <v>101</v>
       </c>
       <c r="D49" s="11">
-        <v>0.13242504562900001</v>
+        <v>0.13241801689499999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="12">
-        <v>534</v>
+        <v>1511</v>
       </c>
       <c r="C50" s="10">
-        <v>350</v>
+        <v>1014</v>
       </c>
       <c r="D50" s="11">
-        <v>0.13243957445400001</v>
+        <v>0.13242504562900001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="12">
-        <v>422</v>
+        <v>534</v>
       </c>
       <c r="C51" s="10">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="D51" s="11">
-        <v>0.13238925566099999</v>
+        <v>0.13243957445400001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="12">
-        <v>114</v>
+        <v>422</v>
       </c>
       <c r="C52" s="10">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="D52" s="11">
-        <v>0.13240398168100001</v>
+        <v>0.13238925566099999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="12">
-        <v>706</v>
+        <v>114</v>
       </c>
       <c r="C53" s="10">
-        <v>496</v>
+        <v>75</v>
       </c>
       <c r="D53" s="11">
-        <v>0.13244299504500001</v>
+        <v>0.13240398168100001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="12">
-        <v>410</v>
+        <v>706</v>
       </c>
       <c r="C54" s="10">
-        <v>283</v>
+        <v>496</v>
       </c>
       <c r="D54" s="11">
-        <v>0.13244970296200001</v>
+        <v>0.13244299504500001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="12">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="C55" s="10">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="D55" s="11">
-        <v>0.13243149290299999</v>
+        <v>0.13244970296200001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
+        <v>9</v>
+      </c>
+      <c r="B56" s="12">
+        <v>190</v>
+      </c>
+      <c r="C56" s="10">
+        <v>139</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0.13243149290299999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>10</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B57" s="12">
         <v>230</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C57" s="10">
         <v>160</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>0.13241884302099999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="7">
-        <f>AVERAGE(B47:B56)</f>
+      <c r="B58" s="7">
+        <f>AVERAGE(B48:B57)</f>
         <v>428.5</v>
       </c>
-      <c r="C57" s="7">
-        <f>AVERAGE(C47:C56)</f>
+      <c r="C58" s="7">
+        <f>AVERAGE(C48:C57)</f>
         <v>291</v>
       </c>
-      <c r="D57" s="8">
-        <f>AVERAGE(D47:D56)</f>
+      <c r="D58" s="8">
+        <f>AVERAGE(D48:D57)</f>
         <v>0.13242132321740002</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+    <row r="60" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="9">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="5" t="s">
+    <row r="61" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1">
-        <v>4969</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1428</v>
-      </c>
-      <c r="D61" s="13">
-        <v>0.114560911322</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>5473</v>
+        <v>4940</v>
       </c>
       <c r="C62" s="10">
-        <v>1614</v>
+        <v>1428</v>
       </c>
       <c r="D62" s="13">
-        <v>0.114569190008</v>
+        <v>0.114560911322</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>5416</v>
       </c>
       <c r="C63" s="10">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="D63" s="13">
-        <v>0</v>
+        <v>0.114569190008</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>2106</v>
       </c>
       <c r="C64" s="10">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="D64" s="13">
-        <v>0</v>
+        <v>0.114574899407</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1">
+        <v>372</v>
+      </c>
+      <c r="C65" s="10">
+        <v>85</v>
+      </c>
+      <c r="D65" s="13">
+        <v>0.11455783169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="7">
+        <f>AVERAGE(B62:B65)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="C66" s="7">
+        <f>AVERAGE(C62:C65)</f>
+        <v>939.25</v>
+      </c>
+      <c r="D66" s="8">
+        <f>AVERAGE(D62:D65)</f>
+        <v>0.11456570810675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="10">
-        <v>0</v>
-      </c>
-      <c r="D65" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>6</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0</v>
-      </c>
-      <c r="D66" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>7</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="10">
-        <v>0</v>
-      </c>
-      <c r="D67" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>8</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="10">
-        <v>0</v>
-      </c>
-      <c r="D68" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>9</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="10">
-        <v>0</v>
-      </c>
-      <c r="D69" s="13">
-        <v>0</v>
+      <c r="C69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>6021</v>
       </c>
       <c r="C70" s="10">
-        <v>0</v>
-      </c>
-      <c r="D70" s="13">
-        <v>0</v>
+        <v>721</v>
+      </c>
+      <c r="D70" s="11">
+        <v>0.101173067088</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -8898,571 +8884,148 @@
         <v>3</v>
       </c>
       <c r="B71" s="7">
-        <f>AVERAGE(B61:B70)</f>
-        <v>1044.2</v>
+        <f>AVERAGE(B70:B70)</f>
+        <v>6021</v>
       </c>
       <c r="C71" s="7">
-        <f t="shared" ref="C71:D71" si="2">AVERAGE(C61:C70)</f>
-        <v>304.2</v>
+        <f>AVERAGE(C70:C70)</f>
+        <v>721</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" si="2"/>
-        <v>2.2913010133000001E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+        <f>AVERAGE(D70:D70)</f>
+        <v>0.101173067088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="9">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>1</v>
-      </c>
-      <c r="B75" s="1">
-        <v>6021</v>
-      </c>
-      <c r="C75" s="10">
-        <v>721</v>
-      </c>
-      <c r="D75" s="11">
-        <v>0.101173067088</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>2</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" s="10">
-        <v>0</v>
-      </c>
-      <c r="D76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>3</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="C77" s="10">
-        <v>0</v>
-      </c>
-      <c r="D77" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1">
+        <v>7998</v>
+      </c>
+      <c r="C78" s="10">
+        <v>827</v>
+      </c>
+      <c r="D78" s="11">
+        <v>9.7430329016000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="7">
+        <f>AVERAGE(B78:B78)</f>
+        <v>7998</v>
+      </c>
+      <c r="C79" s="7">
+        <f>AVERAGE(C78:C78)</f>
+        <v>827</v>
+      </c>
+      <c r="D79" s="8">
+        <f>AVERAGE(D78:D78)</f>
+        <v>9.7430329016000003E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="10">
-        <v>0</v>
-      </c>
-      <c r="D78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>5</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79" s="10">
-        <v>0</v>
-      </c>
-      <c r="D79" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>6</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0</v>
-      </c>
-      <c r="C80" s="10">
-        <v>0</v>
-      </c>
-      <c r="D80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>7</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0</v>
-      </c>
-      <c r="C81" s="10">
-        <v>0</v>
-      </c>
-      <c r="D81" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>8</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" s="10">
-        <v>0</v>
-      </c>
-      <c r="D82" s="11">
-        <v>0</v>
+      <c r="C82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>9</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B83" s="14">
+        <v>21387</v>
       </c>
       <c r="C83" s="10">
-        <v>0</v>
+        <v>1761</v>
       </c>
       <c r="D83" s="11">
-        <v>0</v>
+        <v>9.3783965403000005E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>10</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0</v>
-      </c>
-      <c r="C84" s="10">
-        <v>0</v>
-      </c>
-      <c r="D84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+      <c r="A84" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="7">
-        <f>AVERAGE(B75:B84)</f>
-        <v>602.1</v>
-      </c>
-      <c r="C85" s="7">
-        <f t="shared" ref="C85:D85" si="3">AVERAGE(C75:C84)</f>
-        <v>72.099999999999994</v>
-      </c>
-      <c r="D85" s="8">
-        <f t="shared" si="3"/>
-        <v>1.0117306708800001E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="9">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>1</v>
-      </c>
-      <c r="B92" s="1">
-        <v>7998</v>
-      </c>
-      <c r="C92" s="10">
-        <v>827</v>
-      </c>
-      <c r="D92" s="11">
-        <v>9.7430329016000003E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>2</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
-      <c r="C93" s="10">
-        <v>0</v>
-      </c>
-      <c r="D93" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>3</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0</v>
-      </c>
-      <c r="C94" s="10">
-        <v>0</v>
-      </c>
-      <c r="D94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>4</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0</v>
-      </c>
-      <c r="C95" s="10">
-        <v>0</v>
-      </c>
-      <c r="D95" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <v>5</v>
-      </c>
-      <c r="B96" s="1">
-        <v>0</v>
-      </c>
-      <c r="C96" s="10">
-        <v>0</v>
-      </c>
-      <c r="D96" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <v>6</v>
-      </c>
-      <c r="B97" s="1">
-        <v>0</v>
-      </c>
-      <c r="C97" s="10">
-        <v>0</v>
-      </c>
-      <c r="D97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <v>7</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0</v>
-      </c>
-      <c r="C98" s="10">
-        <v>0</v>
-      </c>
-      <c r="D98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>8</v>
-      </c>
-      <c r="B99" s="1">
-        <v>0</v>
-      </c>
-      <c r="C99" s="10">
-        <v>0</v>
-      </c>
-      <c r="D99" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>9</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0</v>
-      </c>
-      <c r="C100" s="10">
-        <v>0</v>
-      </c>
-      <c r="D100" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>10</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0</v>
-      </c>
-      <c r="C101" s="10">
-        <v>0</v>
-      </c>
-      <c r="D101" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="7">
-        <f>AVERAGE(B92:B101)</f>
-        <v>799.8</v>
-      </c>
-      <c r="C102" s="7">
-        <f t="shared" ref="C102:D102" si="4">AVERAGE(C92:C101)</f>
-        <v>82.7</v>
-      </c>
-      <c r="D102" s="8">
-        <f t="shared" si="4"/>
-        <v>9.7430329015999999E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="9">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <v>1</v>
-      </c>
-      <c r="B106" s="17">
+      <c r="B84" s="7">
+        <f>AVERAGE(B83:B83)</f>
         <v>21387</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C84" s="7">
+        <f>AVERAGE(C83:C83)</f>
         <v>1761</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D84" s="8">
+        <f>AVERAGE(D83:D83)</f>
         <v>9.3783965403000005E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0</v>
-      </c>
-      <c r="C107" s="10">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <v>3</v>
-      </c>
-      <c r="B108" s="1">
-        <v>0</v>
-      </c>
-      <c r="C108" s="10">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <v>4</v>
-      </c>
-      <c r="B109" s="1">
-        <v>0</v>
-      </c>
-      <c r="C109" s="10">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <v>5</v>
-      </c>
-      <c r="B110" s="1">
-        <v>0</v>
-      </c>
-      <c r="C110" s="10">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <v>6</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0</v>
-      </c>
-      <c r="C111" s="10">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>7</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0</v>
-      </c>
-      <c r="C112" s="10">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <v>8</v>
-      </c>
-      <c r="B113" s="1">
-        <v>0</v>
-      </c>
-      <c r="C113" s="10">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <v>9</v>
-      </c>
-      <c r="B114" s="1">
-        <v>0</v>
-      </c>
-      <c r="C114" s="10">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <v>10</v>
-      </c>
-      <c r="B115" s="1">
-        <v>0</v>
-      </c>
-      <c r="C115" s="10">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="7">
-        <f>AVERAGE(B106:B115)</f>
-        <v>2138.6999999999998</v>
-      </c>
-      <c r="C116" s="7">
-        <f t="shared" ref="C116:D116" si="5">AVERAGE(C106:C115)</f>
-        <v>176.1</v>
-      </c>
-      <c r="D116" s="8">
-        <f t="shared" si="5"/>
-        <v>9.3783965402999998E-3</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A76:C76"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A104:C104"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A68:C68"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.6" header="0.3" footer="0.3"/>
